--- a/biology/Botanique/Friends_of_the_Parks/Friends_of_the_Parks.xlsx
+++ b/biology/Botanique/Friends_of_the_Parks/Friends_of_the_Parks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friends of the Parks (FOTP) est une association à but non lucratif basée à Chicago (Illinois, États-Unis). Formée en 1975, il s'agit d'un groupe qui a pour but de surveiller et de défendre l'environnement dans la région de Chicago. Plus précisément, il surveille l'état et le bon fonctionnement du Chicago Park District, qui est l'organisme chargé de la gestion et de l'entretien des parcs de la ville de Chicago. FOTP surveille également le Forest Preserve District of Cook County (FPDCC), l'administration chargée de la protection des réserves forestières du comté de Cook, dans l'agglomération de Chicago.
 Leurs bureaux se trouvent dans un immeuble du centre-ville de Chicago et la présidente de l'association s'appelle Erma Tranter.
